--- a/11.xlsx
+++ b/11.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -186,9 +186,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -277,7 +277,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -295,7 +295,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -318,6 +318,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -366,7 +369,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,7 +404,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,7 +662,7 @@
       </c>
       <c r="D3" s="10">
         <f ca="1">(TODAY()-C3)/365</f>
-        <v>21.210958904109589</v>
+        <v>21.216438356164385</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -674,7 +677,7 @@
       </c>
       <c r="D4" s="10">
         <f t="shared" ref="D4:D21" ca="1" si="0">(TODAY()-C4)/365</f>
-        <v>21.638356164383563</v>
+        <v>21.643835616438356</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -689,7 +692,7 @@
       </c>
       <c r="D5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>20.717808219178082</v>
+        <v>20.723287671232878</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -704,7 +707,7 @@
       </c>
       <c r="D6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>22.830136986301369</v>
+        <v>22.835616438356166</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -719,7 +722,7 @@
       </c>
       <c r="D7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>25.654794520547945</v>
+        <v>25.660273972602738</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,7 +737,7 @@
       </c>
       <c r="D8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>21.052054794520547</v>
+        <v>21.057534246575344</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,7 +752,7 @@
       </c>
       <c r="D9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>23.156164383561645</v>
+        <v>23.161643835616438</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,7 +767,7 @@
       </c>
       <c r="D10" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>22.915068493150685</v>
+        <v>22.920547945205481</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -779,7 +782,7 @@
       </c>
       <c r="D11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>28.241095890410961</v>
+        <v>28.246575342465754</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -794,7 +797,7 @@
       </c>
       <c r="D12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>24.024657534246575</v>
+        <v>24.030136986301368</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -809,7 +812,7 @@
       </c>
       <c r="D13" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>20.413698630136988</v>
+        <v>20.419178082191781</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -824,7 +827,7 @@
       </c>
       <c r="D14" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>22.224657534246575</v>
+        <v>22.230136986301371</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -839,7 +842,7 @@
       </c>
       <c r="D15" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>21.410958904109588</v>
+        <v>21.416438356164385</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -854,7 +857,7 @@
       </c>
       <c r="D16" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>21.476712328767125</v>
+        <v>21.482191780821918</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -869,7 +872,7 @@
       </c>
       <c r="D17" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>22.487671232876714</v>
+        <v>22.493150684931507</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -884,7 +887,7 @@
       </c>
       <c r="D18" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>24.326027397260273</v>
+        <v>24.331506849315069</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -899,7 +902,7 @@
       </c>
       <c r="D19" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>25.917808219178081</v>
+        <v>25.923287671232877</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -914,7 +917,7 @@
       </c>
       <c r="D20" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>22.572602739726026</v>
+        <v>22.578082191780823</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -929,7 +932,7 @@
       </c>
       <c r="D21" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>21.408219178082192</v>
+        <v>21.413698630136988</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
